--- a/biology/Zoologie/Grande_limnée/Grande_limnée.xlsx
+++ b/biology/Zoologie/Grande_limnée/Grande_limnée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grande_limn%C3%A9e</t>
+          <t>Grande_limnée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lymnaea stagnalis
 La Grande limnée (Lymnaea stagnalis) ou Limnée stagnale, est un escargot pulmoné d'eau douce qui mesure de 5 à 6 cm. C'est la plus grande espèce de son genre.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grande_limn%C3%A9e</t>
+          <t>Grande_limnée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette limnée doit périodiquement venir respirer de l'air en surface par une trompe extensible qui communique avec son poumon (pneumostome).
 Elle vit à une température de 0 à 25 °C.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grande_limn%C3%A9e</t>
+          <t>Grande_limnée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Parasitoses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme tous les gastéropodes aquatiques, cette espèce est souvent porteuse d'une ou plusieurs espèces de microbes et de parasites[1],[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme tous les gastéropodes aquatiques, cette espèce est souvent porteuse d'une ou plusieurs espèces de microbes et de parasites.
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grande_limn%C3%A9e</t>
+          <t>Grande_limnée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +596,12 @@
           <t>État, pression et menaces pour les populations de Grandes limnées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'état des populations de cette espèce ne semble pas avoir fait l'objet d'évaluation européenne ou nationales. 
-L'espèce comme tous les invertébrés et vertébrés aquatiques pourraient être vunérable à certaines pesticides ou cocktails de pesticides fréquemment retrouvés dans les eaux douces superficielles[4] 
+L'espèce comme tous les invertébrés et vertébrés aquatiques pourraient être vunérable à certaines pesticides ou cocktails de pesticides fréquemment retrouvés dans les eaux douces superficielles 
 </t>
         </is>
       </c>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grande_limn%C3%A9e</t>
+          <t>Grande_limnée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,11 +630,13 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Facile à élever en microcosmes[5], en bassins ou aquarium, c'est une espèce modèle utilisée en laboratoire par exemple en neurologie et éthologie[6] ou encore en écotoxicologie[7],[8],[9], y compris au stade embryon[10]. L'espèce a notamment fait l'objet d'études concernant ses moyens de défense contre les microbes[11]
-Archéologie, paléontologie : des débris de coquilles de limnées indiquent la présence ancienne de zones humides[12]. En 2006, Bobango &amp; al. proposent d'utiliser certaines de ses protéines pour produire de nouveaux insecticides[13]. Sunada &amp; al (2016)[14] ont étudié certains effets du stress thermique sur cette espèce (notamment via la méthylation de l'ADN). Forest &amp; al (2016) l'ont utilisé pour étudier sa mémoire de moyen et long terme [15].
-Aquariophilie : C'est un gastéropode racleur, mangeur d'algues mais aussi de plantes. Il peut être porteur de plusieurs parasites, dont Fasciola hepatica et divers trématodes[16]. Pour ces raisons il n'est généralement pas introduit dans les aquariums d'eau douce et froide. En outre, dépourvu d'opercule, il peut être victime du reste de la population d'un aquarium si la nourriture vient à manquer.</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Facile à élever en microcosmes, en bassins ou aquarium, c'est une espèce modèle utilisée en laboratoire par exemple en neurologie et éthologie ou encore en écotoxicologie y compris au stade embryon. L'espèce a notamment fait l'objet d'études concernant ses moyens de défense contre les microbes
+Archéologie, paléontologie : des débris de coquilles de limnées indiquent la présence ancienne de zones humides. En 2006, Bobango &amp; al. proposent d'utiliser certaines de ses protéines pour produire de nouveaux insecticides. Sunada &amp; al (2016) ont étudié certains effets du stress thermique sur cette espèce (notamment via la méthylation de l'ADN). Forest &amp; al (2016) l'ont utilisé pour étudier sa mémoire de moyen et long terme .
+Aquariophilie : C'est un gastéropode racleur, mangeur d'algues mais aussi de plantes. Il peut être porteur de plusieurs parasites, dont Fasciola hepatica et divers trématodes. Pour ces raisons il n'est généralement pas introduit dans les aquariums d'eau douce et froide. En outre, dépourvu d'opercule, il peut être victime du reste de la population d'un aquarium si la nourriture vient à manquer.</t>
         </is>
       </c>
     </row>
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Grande_limn%C3%A9e</t>
+          <t>Grande_limnée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,10 +664,12 @@
           <t>Ecotoxicologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mollusques aquatiques (qui sont hermaphrodites et pourraient donc répondre différemment que ne le font d'autres groupes d'espèces à certains produits écotoxiques, perturbateurs endocriniens notamment), ont longtemps été oubliés parmi les espèces testées face aux effets (sur la reproduction et la survie notamment) d'expositions prolongées aux produits chimiques. 
-Lymnaea stagnalis, facile à trouver, à observer et élever en laboratoire (et qui se reproduit souvent) fait partie des espèces finalement choisies pour ce type d'évaluation[17].
+Lymnaea stagnalis, facile à trouver, à observer et élever en laboratoire (et qui se reproduit souvent) fait partie des espèces finalement choisies pour ce type d'évaluation.
 </t>
         </is>
       </c>
